--- a/csv_results_HIGH_2E_DD.xlsx
+++ b/csv_results_HIGH_2E_DD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Documents\DSE\Bigger_is_Better\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{65132BE2-992F-4061-A7D0-319D62A9F2B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E3BC4C12-451A-44AD-89E9-A238B8287A87}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{65132BE2-992F-4061-A7D0-319D62A9F2B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{ED6A470E-A040-48EC-82D7-2CB2A30F7521}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="-108" windowWidth="22068" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1213,16 +1213,16 @@
   <dimension ref="A1:CD35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CF16" sqref="CF16"/>
+      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="54" width="0" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="56" max="69" width="0" hidden="1" customWidth="1"/>
     <col min="71" max="80" width="0" hidden="1" customWidth="1"/>
   </cols>
@@ -1297,7 +1297,7 @@
       <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Z1" t="s">
@@ -1387,7 +1387,7 @@
       <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BC1" s="4" t="s">
         <v>53</v>
       </c>
       <c r="BD1" t="s">
@@ -1545,7 +1545,7 @@
       <c r="X2">
         <v>1638535.3019999999</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Y2" s="2">
         <v>1694808.344</v>
       </c>
       <c r="Z2">
@@ -1635,7 +1635,7 @@
       <c r="BB2">
         <v>1677190.35</v>
       </c>
-      <c r="BC2" s="2">
+      <c r="BC2" s="4">
         <v>1734494.186</v>
       </c>
       <c r="BD2">
@@ -1793,7 +1793,7 @@
       <c r="X3">
         <v>472485.24530000001</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y3" s="2">
         <v>472485.24530000001</v>
       </c>
       <c r="Z3">
@@ -1883,7 +1883,7 @@
       <c r="BB3">
         <v>472485.24530000001</v>
       </c>
-      <c r="BC3" s="2">
+      <c r="BC3" s="4">
         <v>472485.24530000001</v>
       </c>
       <c r="BD3">
@@ -2041,7 +2041,7 @@
       <c r="X4">
         <v>146439.02590000001</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Y4" s="2">
         <v>151034.60490000001</v>
       </c>
       <c r="Z4">
@@ -2131,7 +2131,7 @@
       <c r="BB4">
         <v>149797.8021</v>
       </c>
-      <c r="BC4" s="2">
+      <c r="BC4" s="4">
         <v>154456.63750000001</v>
       </c>
       <c r="BD4">
@@ -2289,7 +2289,7 @@
       <c r="X5">
         <v>1019611.03</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5" s="2">
         <v>1071288.4939999999</v>
       </c>
       <c r="Z5">
@@ -2379,7 +2379,7 @@
       <c r="BB5">
         <v>1054907.3019999999</v>
       </c>
-      <c r="BC5" s="2">
+      <c r="BC5" s="4">
         <v>1107552.304</v>
       </c>
       <c r="BD5">
@@ -2537,7 +2537,7 @@
       <c r="X6">
         <v>223945.3174</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y6" s="2">
         <v>266382.196</v>
       </c>
       <c r="Z6">
@@ -2627,7 +2627,7 @@
       <c r="BB6">
         <v>232656.17009999999</v>
       </c>
-      <c r="BC6" s="2">
+      <c r="BC6" s="4">
         <v>276079.03899999999</v>
       </c>
       <c r="BD6">
@@ -2785,7 +2785,7 @@
       <c r="X7">
         <v>31393.341919999999</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7" s="2">
         <v>32880.050739999999</v>
       </c>
       <c r="Z7">
@@ -2875,7 +2875,7 @@
       <c r="BB7">
         <v>28913.626459999999</v>
       </c>
-      <c r="BC7" s="2">
+      <c r="BC7" s="4">
         <v>30191.03485</v>
       </c>
       <c r="BD7">
@@ -3033,7 +3033,7 @@
       <c r="X8">
         <v>273865.42119999998</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="2">
         <v>273993.09899999999</v>
       </c>
       <c r="Z8">
@@ -3123,7 +3123,7 @@
       <c r="BB8">
         <v>294101.2439</v>
       </c>
-      <c r="BC8" s="2">
+      <c r="BC8" s="4">
         <v>294254.54489999998</v>
       </c>
       <c r="BD8">
@@ -3281,7 +3281,7 @@
       <c r="X9">
         <v>24488.42642</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="2">
         <v>25256.92715</v>
       </c>
       <c r="Z9">
@@ -3371,7 +3371,7 @@
       <c r="BB9">
         <v>28317.505980000002</v>
       </c>
-      <c r="BC9" s="2">
+      <c r="BC9" s="4">
         <v>29198.203819999999</v>
       </c>
       <c r="BD9">
@@ -3529,7 +3529,7 @@
       <c r="X10">
         <v>126273.2452</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Y10" s="2">
         <v>126334.0073</v>
       </c>
       <c r="Z10">
@@ -3619,7 +3619,7 @@
       <c r="BB10">
         <v>126261.0371</v>
       </c>
-      <c r="BC10" s="2">
+      <c r="BC10" s="4">
         <v>126319.3236</v>
       </c>
       <c r="BD10">
@@ -3777,7 +3777,7 @@
       <c r="X11">
         <v>300054.73340000003</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Y11" s="2">
         <v>305810.60930000001</v>
       </c>
       <c r="Z11">
@@ -3867,7 +3867,7 @@
       <c r="BB11">
         <v>304305.78869999998</v>
       </c>
-      <c r="BC11" s="2">
+      <c r="BC11" s="4">
         <v>310106.63750000001</v>
       </c>
       <c r="BD11">
@@ -4025,7 +4025,7 @@
       <c r="X12">
         <v>0.64101527899999999</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Y12" s="2">
         <v>0.64101527899999999</v>
       </c>
       <c r="Z12">
@@ -4115,7 +4115,7 @@
       <c r="BB12">
         <v>0.57257354299999996</v>
       </c>
-      <c r="BC12" s="2">
+      <c r="BC12" s="4">
         <v>0.57257354299999996</v>
       </c>
       <c r="BD12">
@@ -4273,7 +4273,7 @@
       <c r="X13">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Y13" s="2">
         <v>3.5740000000000001E-2</v>
       </c>
       <c r="Z13">
@@ -4363,7 +4363,7 @@
       <c r="BB13">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="BC13" s="2">
+      <c r="BC13" s="4">
         <v>3.415E-2</v>
       </c>
       <c r="BD13">
@@ -4521,7 +4521,7 @@
       <c r="X14">
         <v>16.824547989999999</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Y14" s="2">
         <v>17.935514229999999</v>
       </c>
       <c r="Z14">
@@ -4611,7 +4611,7 @@
       <c r="BB14">
         <v>15.904820640000001</v>
       </c>
-      <c r="BC14" s="2">
+      <c r="BC14" s="4">
         <v>16.766428789999999</v>
       </c>
       <c r="BD14">
@@ -4769,7 +4769,7 @@
       <c r="X15" s="1">
         <v>1.2E-5</v>
       </c>
-      <c r="Y15" s="5">
+      <c r="Y15" s="3">
         <v>1.2E-5</v>
       </c>
       <c r="Z15" s="1">
@@ -4859,7 +4859,7 @@
       <c r="BB15" s="1">
         <v>1.3699999999999999E-5</v>
       </c>
-      <c r="BC15" s="3">
+      <c r="BC15" s="5">
         <v>1.3699999999999999E-5</v>
       </c>
       <c r="BD15" s="1">
@@ -5017,7 +5017,7 @@
       <c r="X16">
         <v>0.85</v>
       </c>
-      <c r="Y16" s="4">
+      <c r="Y16" s="2">
         <v>0.85</v>
       </c>
       <c r="Z16">
@@ -5107,7 +5107,7 @@
       <c r="BB16">
         <v>0.85</v>
       </c>
-      <c r="BC16" s="2">
+      <c r="BC16" s="4">
         <v>0.85</v>
       </c>
       <c r="BD16">
@@ -5265,7 +5265,7 @@
       <c r="X17">
         <v>10</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Y17" s="2">
         <v>12</v>
       </c>
       <c r="Z17">
@@ -5355,7 +5355,7 @@
       <c r="BB17">
         <v>10</v>
       </c>
-      <c r="BC17" s="2">
+      <c r="BC17" s="4">
         <v>12</v>
       </c>
       <c r="BD17">
@@ -5513,7 +5513,7 @@
       <c r="X18">
         <v>273.00363900000002</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="Y18" s="2">
         <v>281.5710942</v>
       </c>
       <c r="Z18">
@@ -5603,7 +5603,7 @@
       <c r="BB18">
         <v>239.37029570000001</v>
       </c>
-      <c r="BC18" s="2">
+      <c r="BC18" s="4">
         <v>246.81490969999999</v>
       </c>
       <c r="BD18">
@@ -5761,7 +5761,7 @@
       <c r="X19">
         <v>52.249750140000003</v>
       </c>
-      <c r="Y19" s="4">
+      <c r="Y19" s="2">
         <v>58.127903199999999</v>
       </c>
       <c r="Z19">
@@ -5851,7 +5851,7 @@
       <c r="BB19">
         <v>48.925483720000003</v>
       </c>
-      <c r="BC19" s="2">
+      <c r="BC19" s="4">
         <v>54.422228140000001</v>
       </c>
       <c r="BD19">
@@ -6009,7 +6009,7 @@
       <c r="X20">
         <v>7.4642500199999997</v>
       </c>
-      <c r="Y20" s="4">
+      <c r="Y20" s="2">
         <v>6.9199884760000003</v>
       </c>
       <c r="Z20">
@@ -6099,7 +6099,7 @@
       <c r="BB20">
         <v>7.6023855779999998</v>
       </c>
-      <c r="BC20" s="2">
+      <c r="BC20" s="4">
         <v>7.0470903050000002</v>
       </c>
       <c r="BD20">
@@ -6257,7 +6257,7 @@
       <c r="X21">
         <v>2.9857000079999998</v>
       </c>
-      <c r="Y21" s="4">
+      <c r="Y21" s="2">
         <v>2.7679953899999998</v>
       </c>
       <c r="Z21">
@@ -6347,7 +6347,7 @@
       <c r="BB21">
         <v>2.1827111650000002</v>
       </c>
-      <c r="BC21" s="2">
+      <c r="BC21" s="4">
         <v>2.0232810520000002</v>
       </c>
       <c r="BD21">
@@ -6505,7 +6505,7 @@
       <c r="X22">
         <v>0</v>
       </c>
-      <c r="Y22" s="4">
+      <c r="Y22" s="2">
         <v>0</v>
       </c>
       <c r="Z22">
@@ -6595,7 +6595,7 @@
       <c r="BB22">
         <v>0.56445641800000002</v>
       </c>
-      <c r="BC22" s="2">
+      <c r="BC22" s="4">
         <v>0.56445641800000002</v>
       </c>
       <c r="BD22">
@@ -6753,7 +6753,7 @@
       <c r="X23">
         <v>0.4</v>
       </c>
-      <c r="Y23" s="4">
+      <c r="Y23" s="2">
         <v>0.4</v>
       </c>
       <c r="Z23">
@@ -6843,7 +6843,7 @@
       <c r="BB23">
         <v>0.28710871599999999</v>
       </c>
-      <c r="BC23" s="2">
+      <c r="BC23" s="4">
         <v>0.28710871599999999</v>
       </c>
       <c r="BD23">
@@ -7001,7 +7001,7 @@
       <c r="X24">
         <v>53.99851657</v>
       </c>
-      <c r="Y24" s="4">
+      <c r="Y24" s="2">
         <v>53.99851657</v>
       </c>
       <c r="Z24">
@@ -7091,7 +7091,7 @@
       <c r="BB24">
         <v>53.99851657</v>
       </c>
-      <c r="BC24" s="2">
+      <c r="BC24" s="4">
         <v>53.99851657</v>
       </c>
       <c r="BD24">
@@ -7249,7 +7249,7 @@
       <c r="X25">
         <v>6.287718634</v>
       </c>
-      <c r="Y25" s="4">
+      <c r="Y25" s="2">
         <v>6.287718634</v>
       </c>
       <c r="Z25">
@@ -7339,7 +7339,7 @@
       <c r="BB25">
         <v>6.287718634</v>
       </c>
-      <c r="BC25" s="2">
+      <c r="BC25" s="4">
         <v>6.287718634</v>
       </c>
       <c r="BD25">
@@ -7497,7 +7497,7 @@
       <c r="X26">
         <v>11.63227947</v>
       </c>
-      <c r="Y26" s="4">
+      <c r="Y26" s="2">
         <v>11.63227947</v>
       </c>
       <c r="Z26">
@@ -7587,7 +7587,7 @@
       <c r="BB26">
         <v>11.63227947</v>
       </c>
-      <c r="BC26" s="2">
+      <c r="BC26" s="4">
         <v>11.63227947</v>
       </c>
       <c r="BD26">
@@ -7745,7 +7745,7 @@
       <c r="X27">
         <v>20.749471490000001</v>
       </c>
-      <c r="Y27" s="4">
+      <c r="Y27" s="2">
         <v>20.749471490000001</v>
       </c>
       <c r="Z27">
@@ -7835,7 +7835,7 @@
       <c r="BB27">
         <v>20.749471490000001</v>
       </c>
-      <c r="BC27" s="2">
+      <c r="BC27" s="4">
         <v>20.749471490000001</v>
       </c>
       <c r="BD27">
@@ -7993,7 +7993,7 @@
       <c r="X28">
         <v>28.352132650000001</v>
       </c>
-      <c r="Y28" s="4">
+      <c r="Y28" s="2">
         <v>28.378574700000001</v>
       </c>
       <c r="Z28">
@@ -8083,7 +8083,7 @@
       <c r="BB28">
         <v>28.609686979999999</v>
       </c>
-      <c r="BC28" s="2">
+      <c r="BC28" s="4">
         <v>28.639520489999999</v>
       </c>
       <c r="BD28">
@@ -8241,7 +8241,7 @@
       <c r="X29">
         <v>52.863273190000001</v>
       </c>
-      <c r="Y29" s="4">
+      <c r="Y29" s="2">
         <v>50.499414129999998</v>
       </c>
       <c r="Z29">
@@ -8331,7 +8331,7 @@
       <c r="BB29">
         <v>44.673352780000002</v>
       </c>
-      <c r="BC29" s="2">
+      <c r="BC29" s="4">
         <v>42.653579790000002</v>
       </c>
       <c r="BD29">
@@ -8489,7 +8489,7 @@
       <c r="X30">
         <v>39.104403419999997</v>
       </c>
-      <c r="Y30" s="4">
+      <c r="Y30" s="2">
         <v>44.910624009999999</v>
       </c>
       <c r="Z30">
@@ -8579,7 +8579,7 @@
       <c r="BB30">
         <v>31.926479480000001</v>
       </c>
-      <c r="BC30" s="2">
+      <c r="BC30" s="4">
         <v>36.6420946</v>
       </c>
       <c r="BD30">
@@ -8737,7 +8737,7 @@
       <c r="X31">
         <v>376745.02179999999</v>
       </c>
-      <c r="Y31" s="4">
+      <c r="Y31" s="2">
         <v>388568.11</v>
       </c>
       <c r="Z31">
@@ -8827,7 +8827,7 @@
       <c r="BB31">
         <v>435653.93819999998</v>
       </c>
-      <c r="BC31" s="2">
+      <c r="BC31" s="4">
         <v>449203.13559999998</v>
       </c>
       <c r="BD31">
@@ -8985,7 +8985,7 @@
       <c r="X32">
         <v>0.7</v>
       </c>
-      <c r="Y32" s="4">
+      <c r="Y32" s="2">
         <v>0.7</v>
       </c>
       <c r="Z32">
@@ -9075,7 +9075,7 @@
       <c r="BB32">
         <v>0.8</v>
       </c>
-      <c r="BC32" s="2">
+      <c r="BC32" s="4">
         <v>0.8</v>
       </c>
       <c r="BD32">
@@ -9233,7 +9233,7 @@
       <c r="X33">
         <v>209.60490999999999</v>
       </c>
-      <c r="Y33" s="4">
+      <c r="Y33" s="2">
         <v>209.60490999999999</v>
       </c>
       <c r="Z33">
@@ -9323,7 +9323,7 @@
       <c r="BB33">
         <v>239.54846860000001</v>
       </c>
-      <c r="BC33" s="2">
+      <c r="BC33" s="4">
         <v>239.54846860000001</v>
       </c>
       <c r="BD33">
@@ -9481,7 +9481,7 @@
       <c r="X34">
         <v>10000</v>
       </c>
-      <c r="Y34" s="4">
+      <c r="Y34" s="2">
         <v>10000</v>
       </c>
       <c r="Z34">
@@ -9571,7 +9571,7 @@
       <c r="BB34">
         <v>10000</v>
       </c>
-      <c r="BC34" s="2">
+      <c r="BC34" s="4">
         <v>10000</v>
       </c>
       <c r="BD34">
@@ -9729,7 +9729,7 @@
       <c r="X35">
         <v>9.2766020000000001E-3</v>
       </c>
-      <c r="Y35" s="4">
+      <c r="Y35" s="2">
         <v>8.9750760000000002E-3</v>
       </c>
       <c r="Z35">
@@ -9819,7 +9819,7 @@
       <c r="BB35">
         <v>1.0038115E-2</v>
       </c>
-      <c r="BC35" s="2">
+      <c r="BC35" s="4">
         <v>9.8184180000000006E-3</v>
       </c>
       <c r="BD35">
